--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_374__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_374__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,55 +5873,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>2.450690269470215</c:v>
+                  <c:v>2.450671672821045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.18349647521973</c:v>
+                  <c:v>13.18349170684814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.53053188323975</c:v>
+                  <c:v>12.53053855895996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.734023571014404</c:v>
+                  <c:v>6.734030246734619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.18301773071289</c:v>
+                  <c:v>41.18301391601562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.18481826782227</c:v>
+                  <c:v>16.1848258972168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.71199798583984</c:v>
+                  <c:v>31.71200180053711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.22364330291748</c:v>
+                  <c:v>8.223648071289062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.58981990814209</c:v>
+                  <c:v>9.589829444885254</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.545971989631653</c:v>
+                  <c:v>-1.545960426330566</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.74370193481445</c:v>
+                  <c:v>28.74369621276855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9962710738182068</c:v>
+                  <c:v>0.9962682127952576</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.27595138549805</c:v>
+                  <c:v>26.27594375610352</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.704124450683594</c:v>
+                  <c:v>9.70411491394043</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.663578987121582</c:v>
+                  <c:v>6.66357421875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.87154388427734</c:v>
+                  <c:v>29.87153625488281</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.84454917907715</c:v>
+                  <c:v>23.84453582763672</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>17.22384071350098</c:v>
@@ -5930,241 +5930,241 @@
                   <c:v>11.405104637146</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.1518669128418</c:v>
+                  <c:v>18.15186309814453</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>26.10955047607422</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.581442832946777</c:v>
+                  <c:v>9.58143424987793</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.13123321533203</c:v>
+                  <c:v>17.13124084472656</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.59386444091797</c:v>
+                  <c:v>24.5938720703125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.860852241516113</c:v>
+                  <c:v>3.860862016677856</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.07678604125977</c:v>
+                  <c:v>10.07679080963135</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.60613822937012</c:v>
+                  <c:v>18.60614013671875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.29210090637207</c:v>
+                  <c:v>16.29209518432617</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.32474517822266</c:v>
+                  <c:v>21.32474327087402</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.16171264648438</c:v>
+                  <c:v>19.16172027587891</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.65627098083496</c:v>
+                  <c:v>21.65628433227539</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.489991188049316</c:v>
+                  <c:v>8.489980697631836</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.6418342590332</c:v>
+                  <c:v>19.64183807373047</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.27274608612061</c:v>
+                  <c:v>11.27275371551514</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.845311164855957</c:v>
+                  <c:v>8.845315933227539</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>32.75635528564453</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.360905647277832</c:v>
+                  <c:v>8.360909461975098</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.780479431152344</c:v>
+                  <c:v>2.780488729476929</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.47633743286133</c:v>
+                  <c:v>11.47634696960449</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16.22379302978516</c:v>
+                  <c:v>16.22380065917969</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23.01617431640625</c:v>
+                  <c:v>23.01616477966309</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.04840850830078</c:v>
+                  <c:v>28.04838943481445</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.98110818862915</c:v>
+                  <c:v>-1.981105923652649</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.84993934631348</c:v>
+                  <c:v>18.84994697570801</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24.40985870361328</c:v>
+                  <c:v>24.40986824035645</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.23584461212158</c:v>
+                  <c:v>14.23584365844727</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.63718223571777</c:v>
+                  <c:v>13.63718891143799</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.98705196380615</c:v>
+                  <c:v>13.98702812194824</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>19.25445365905762</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18.28079795837402</c:v>
+                  <c:v>18.28079986572266</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12.4895658493042</c:v>
+                  <c:v>12.48955249786377</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14.81466770172119</c:v>
+                  <c:v>14.81467533111572</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>23.58236503601074</c:v>
+                  <c:v>23.58236312866211</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>15.36504364013672</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.70201301574707</c:v>
+                  <c:v>19.7020092010498</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.67614555358887</c:v>
+                  <c:v>18.67615127563477</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.466214656829834</c:v>
+                  <c:v>5.466221332550049</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.18230438232422</c:v>
+                  <c:v>14.18232154846191</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.383724212646484</c:v>
+                  <c:v>4.383729457855225</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18.49197006225586</c:v>
+                  <c:v>18.49196815490723</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>23.02588653564453</c:v>
+                  <c:v>23.02587699890137</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11.55746650695801</c:v>
+                  <c:v>11.55748081207275</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30.67326927185059</c:v>
+                  <c:v>30.67325973510742</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19.01646995544434</c:v>
+                  <c:v>19.01647186279297</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.28829956054688</c:v>
+                  <c:v>10.28830432891846</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.61167526245117</c:v>
+                  <c:v>16.61166572570801</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>13.52808856964111</c:v>
+                  <c:v>13.52809906005859</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.61237716674805</c:v>
+                  <c:v>15.61237239837646</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.406139373779297</c:v>
+                  <c:v>8.406137466430664</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.61751079559326</c:v>
+                  <c:v>12.617506980896</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18.07527923583984</c:v>
+                  <c:v>18.07527160644531</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>29.81672286987305</c:v>
+                  <c:v>29.81671524047852</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14.03007030487061</c:v>
+                  <c:v>14.03006362915039</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.622786521911621</c:v>
+                  <c:v>9.622782707214355</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>19.7921085357666</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18.66778945922852</c:v>
+                  <c:v>18.66778755187988</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.032196998596191</c:v>
+                  <c:v>8.032192230224609</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.5839335918426514</c:v>
+                  <c:v>0.5839272141456604</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>21.95611953735352</c:v>
+                  <c:v>21.95612525939941</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-5.748661518096924</c:v>
+                  <c:v>-5.748673439025879</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.52476215362549</c:v>
+                  <c:v>14.52474784851074</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>17.88564872741699</c:v>
+                  <c:v>17.88565254211426</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>17.32791519165039</c:v>
+                  <c:v>17.32791137695312</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>22.81720161437988</c:v>
+                  <c:v>22.81719779968262</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.23149394989014</c:v>
+                  <c:v>13.23148536682129</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.8272901773452759</c:v>
+                  <c:v>-0.8272925019264221</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.541323661804199</c:v>
+                  <c:v>4.541325569152832</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>28.15977668762207</c:v>
+                  <c:v>28.1597728729248</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.41051197052002</c:v>
+                  <c:v>13.41049385070801</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.142823696136475</c:v>
+                  <c:v>7.142814636230469</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>17.66370010375977</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.687953472137451</c:v>
+                  <c:v>7.68794584274292</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>15.00818729400635</c:v>
+                  <c:v>15.00817966461182</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>13.75595951080322</c:v>
+                  <c:v>13.75595760345459</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.9793230891227722</c:v>
+                  <c:v>-0.9793196320533752</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>23.01581382751465</c:v>
+                  <c:v>23.01580810546875</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>14.7941780090332</c:v>
+                  <c:v>14.79417133331299</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>27.15094375610352</c:v>
+                  <c:v>27.15094184875488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.450690269470215</v>
+        <v>2.450671672821045</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>13.18349647521973</v>
+        <v>13.18349170684814</v>
       </c>
       <c r="G3">
         <v>83</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12.53053188323975</v>
+        <v>12.53053855895996</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.734023571014404</v>
+        <v>6.734030246734619</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>41.18301773071289</v>
+        <v>41.18301391601562</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.18481826782227</v>
+        <v>16.1848258972168</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.71199798583984</v>
+        <v>31.71200180053711</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.22364330291748</v>
+        <v>8.223648071289062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.58981990814209</v>
+        <v>9.589829444885254</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-1.545971989631653</v>
+        <v>-1.545960426330566</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.74370193481445</v>
+        <v>28.74369621276855</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>0.9962710738182068</v>
+        <v>0.9962682127952576</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.27595138549805</v>
+        <v>26.27594375610352</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>9.704124450683594</v>
+        <v>9.70411491394043</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>6.663578987121582</v>
+        <v>6.66357421875</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>29.87154388427734</v>
+        <v>29.87153625488281</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.84454917907715</v>
+        <v>23.84453582763672</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.1518669128418</v>
+        <v>18.15186309814453</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>9.581442832946777</v>
+        <v>9.58143424987793</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.13123321533203</v>
+        <v>17.13124084472656</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.59386444091797</v>
+        <v>24.5938720703125</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3.860852241516113</v>
+        <v>3.860862016677856</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>10.07678604125977</v>
+        <v>10.07679080963135</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>18.60613822937012</v>
+        <v>18.60614013671875</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>16.29210090637207</v>
+        <v>16.29209518432617</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>21.32474517822266</v>
+        <v>21.32474327087402</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>19.16171264648438</v>
+        <v>19.16172027587891</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>21.65627098083496</v>
+        <v>21.65628433227539</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>8.489991188049316</v>
+        <v>8.489980697631836</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>19.6418342590332</v>
+        <v>19.64183807373047</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>11.27274608612061</v>
+        <v>11.27275371551514</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>8.845311164855957</v>
+        <v>8.845315933227539</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8.360905647277832</v>
+        <v>8.360909461975098</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.780479431152344</v>
+        <v>2.780488729476929</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>11.47633743286133</v>
+        <v>11.47634696960449</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>16.22379302978516</v>
+        <v>16.22380065917969</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>23.01617431640625</v>
+        <v>23.01616477966309</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>28.04840850830078</v>
+        <v>28.04838943481445</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-1.98110818862915</v>
+        <v>-1.981105923652649</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18.84993934631348</v>
+        <v>18.84994697570801</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>24.40985870361328</v>
+        <v>24.40986824035645</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>14.23584461212158</v>
+        <v>14.23584365844727</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>13.63718223571777</v>
+        <v>13.63718891143799</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>13.98705196380615</v>
+        <v>13.98702812194824</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>18.28079795837402</v>
+        <v>18.28079986572266</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>12.4895658493042</v>
+        <v>12.48955249786377</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>14.81466770172119</v>
+        <v>14.81467533111572</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>23.58236503601074</v>
+        <v>23.58236312866211</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>19.70201301574707</v>
+        <v>19.7020092010498</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>18.67614555358887</v>
+        <v>18.67615127563477</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>5.466214656829834</v>
+        <v>5.466221332550049</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>14.18230438232422</v>
+        <v>14.18232154846191</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>4.383724212646484</v>
+        <v>4.383729457855225</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>18.49197006225586</v>
+        <v>18.49196815490723</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>23.02588653564453</v>
+        <v>23.02587699890137</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>11.55746650695801</v>
+        <v>11.55748081207275</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>30.67326927185059</v>
+        <v>30.67325973510742</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>19.01646995544434</v>
+        <v>19.01647186279297</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>10.28829956054688</v>
+        <v>10.28830432891846</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>16.61167526245117</v>
+        <v>16.61166572570801</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>13.52808856964111</v>
+        <v>13.52809906005859</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>15.61237716674805</v>
+        <v>15.61237239837646</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>8.406139373779297</v>
+        <v>8.406137466430664</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>12.61751079559326</v>
+        <v>12.617506980896</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>18.07527923583984</v>
+        <v>18.07527160644531</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>29.81672286987305</v>
+        <v>29.81671524047852</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>14.03007030487061</v>
+        <v>14.03006362915039</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>9.622786521911621</v>
+        <v>9.622782707214355</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>18.66778945922852</v>
+        <v>18.66778755187988</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>8.032196998596191</v>
+        <v>8.032192230224609</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.5839335918426514</v>
+        <v>0.5839272141456604</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>21.95611953735352</v>
+        <v>21.95612525939941</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-5.748661518096924</v>
+        <v>-5.748673439025879</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>14.52476215362549</v>
+        <v>14.52474784851074</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>17.88564872741699</v>
+        <v>17.88565254211426</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>17.32791519165039</v>
+        <v>17.32791137695312</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>22.81720161437988</v>
+        <v>22.81719779968262</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>13.23149394989014</v>
+        <v>13.23148536682129</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.8272901773452759</v>
+        <v>-0.8272925019264221</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>4.541323661804199</v>
+        <v>4.541325569152832</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>28.15977668762207</v>
+        <v>28.1597728729248</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>13.41051197052002</v>
+        <v>13.41049385070801</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>7.142823696136475</v>
+        <v>7.142814636230469</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>7.687953472137451</v>
+        <v>7.68794584274292</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>15.00818729400635</v>
+        <v>15.00817966461182</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>13.75595951080322</v>
+        <v>13.75595760345459</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>-0.9793230891227722</v>
+        <v>-0.9793196320533752</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>23.01581382751465</v>
+        <v>23.01580810546875</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>14.7941780090332</v>
+        <v>14.79417133331299</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>27.15094375610352</v>
+        <v>27.15094184875488</v>
       </c>
     </row>
     <row r="100" spans="1:6">
